--- a/Consultant_Active_Reports/Active_Candidates_Joe_Marron.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Joe_Marron.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tim Sullivan</t>
+          <t>Chris Hogan</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -634,35 +634,35 @@
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45992</v>
+        <v>45994</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Axion Ray</t>
+          <t>Dash0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BDR Manager (North East)</t>
+          <t>Director of Commercial Sales, NYC/Boston</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Jacques Lane</t>
+          <t>Tim Sullivan</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45987</v>
+        <v>45994</v>
       </c>
     </row>
     <row r="9">
@@ -681,7 +681,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Branden Bilicki</t>
+          <t>Jacques Lane</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45993</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="10">
@@ -709,7 +709,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Marlie Manketo</t>
+          <t>Branden Bilicki</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45996</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="11">
@@ -737,21 +737,21 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Alexander Barta</t>
+          <t>Marlie Manketo</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45987</v>
+        <v>45996</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -760,40 +760,40 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (East)</t>
+          <t>BDR Manager (North East)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Lindsay St.Cin</t>
+          <t>Alexander Barta</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45992</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Conduct AI</t>
+          <t>Axion Ray</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CS1 Conduct AI - Enterprise Account Executive UK (German speaking)</t>
+          <t>Enterprise Account Executive (East)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Leonard Friederich</t>
+          <t>Lindsay St.Cin</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -807,21 +807,21 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LaunchDarkly</t>
+          <t>Conduct AI</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (Germany)</t>
+          <t>CS1 Conduct AI - Enterprise Account Executive UK (German speaking)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Florian Werner</t>
+          <t>Leonard Friederich</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45982</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="15">
@@ -849,7 +849,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Aron Kraft</t>
+          <t>Florian Werner</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>45987</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="16">
@@ -877,7 +877,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Maximilian May</t>
+          <t>Aron Kraft</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -905,7 +905,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sinan Ezer</t>
+          <t>Maximilian May</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -914,63 +914,63 @@
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45989</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>763</v>
+        <v>746</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Energy Robotics</t>
+          <t>LaunchDarkly</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Account Executive (Dubai)</t>
+          <t>Enterprise Account Executive (Germany)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>James Bennett</t>
+          <t>Sinan Ezer</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45971</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>801</v>
+        <v>763</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Redwood Software</t>
+          <t>Energy Robotics</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Redwood AE Germany x 3</t>
+          <t>Account Executive (Dubai)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Aron Kraft</t>
+          <t>James Bennett</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45982</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="20">
@@ -989,40 +989,40 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Leonard Friederich</t>
+          <t>Aron Kraft</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45988</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Laurel</t>
+          <t>Redwood Software</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive UK x4</t>
+          <t>Redwood AE Germany x 3</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Dionys Gragousian</t>
+          <t>Leonard Friederich</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F21" s="2" t="n">
@@ -1031,16 +1031,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Conduct AI</t>
+          <t>Laurel</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive UK</t>
+          <t>Enterprise Account Executive UK x4</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1054,34 +1054,62 @@
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45989</v>
+        <v>45988</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
+        <v>815</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Conduct AI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Enterprise Account Executive UK</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Dionys Gragousian</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1st Interview</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>45989</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>833</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Blockaid</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>SDR Manager</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Branden Bilicki</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1st Interview</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="n">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1st Interview</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="n">
         <v>45995</v>
       </c>
     </row>

--- a/Consultant_Active_Reports/Active_Candidates_Joe_Marron.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Joe_Marron.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,58 +471,58 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>694</v>
+        <v>567</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chronosphere</t>
+          <t>Doxel.ai</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS1 Chronosphere - Enterprise AE</t>
+          <t>CS1 Doxel - Regional Sales Director (CST or EST)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Frank Casper</t>
+          <t>Nathan Maronde</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45982</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>715</v>
+        <v>694</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Honeycomb</t>
+          <t>Chronosphere</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Strat AE U.S x4</t>
+          <t>CS1 Chronosphere - Enterprise AE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Mark Staveley</t>
+          <t>Frank Casper</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45972</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="4">
@@ -541,16 +541,16 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Frank Casper</t>
+          <t>Mark Staveley</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45981</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="5">
@@ -569,7 +569,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Barrett Drew</t>
+          <t>Frank Casper</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -578,54 +578,54 @@
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45985</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>738</v>
+        <v>715</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dash0</t>
+          <t>Honeycomb</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Director of Commercial Sales, NYC/Boston</t>
+          <t>Strat AE U.S x4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Chris Hogan</t>
+          <t>Brian Saverino</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45988</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>738</v>
+        <v>715</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dash0</t>
+          <t>Honeycomb</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Director of Commercial Sales, NYC/Boston</t>
+          <t>Strat AE U.S x4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Chris Hogan</t>
+          <t>Barrett Drew</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45994</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="8">
@@ -653,12 +653,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tim Sullivan</t>
+          <t>Chris Hogan</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
@@ -667,49 +667,49 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Axion Ray</t>
+          <t>Dash0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BDR Manager (North East)</t>
+          <t>Director of Commercial Sales, NYC/Boston</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Jacques Lane</t>
+          <t>Tim Sullivan</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45987</v>
+        <v>45994</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Axion Ray</t>
+          <t>Dash0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BDR Manager (North East)</t>
+          <t>Director of Commercial Sales, NYC/Boston</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Branden Bilicki</t>
+          <t>Chris Hogan</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45993</v>
+        <v>45988</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Marlie Manketo</t>
+          <t>Alexander Barta</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45996</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="12">
@@ -765,21 +765,21 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Alexander Barta</t>
+          <t>Marlie Manketo</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45987</v>
+        <v>45996</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -788,12 +788,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (East)</t>
+          <t>BDR Manager (North East)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Lindsay St.Cin</t>
+          <t>Jacques Lane</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -802,26 +802,26 @@
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45992</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Conduct AI</t>
+          <t>Axion Ray</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CS1 Conduct AI - Enterprise Account Executive UK (German speaking)</t>
+          <t>BDR Manager (North East)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Leonard Friederich</t>
+          <t>Branden Bilicki</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -830,26 +830,26 @@
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45992</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LaunchDarkly</t>
+          <t>Axion Ray</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (Germany)</t>
+          <t>Enterprise Account Executive (East)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Florian Werner</t>
+          <t>Lindsay St.Cin</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -858,54 +858,54 @@
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>45982</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LaunchDarkly</t>
+          <t>Axion Ray</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (Germany)</t>
+          <t>Enterprise Account Executive (East)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Aron Kraft</t>
+          <t>Brian Saverino</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>3rd Interview</t>
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45987</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LaunchDarkly</t>
+          <t>Axion Ray</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (Germany)</t>
+          <t>Enterprise Account Executive (Central)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Maximilian May</t>
+          <t>Colin Roper</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -914,26 +914,26 @@
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45987</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LaunchDarkly</t>
+          <t>Conduct AI</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (Germany)</t>
+          <t>CS1 Conduct AI - Enterprise Account Executive UK (German speaking)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sinan Ezer</t>
+          <t>Leonard Friederich</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -942,54 +942,54 @@
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45989</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>763</v>
+        <v>746</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Energy Robotics</t>
+          <t>LaunchDarkly</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Account Executive (Dubai)</t>
+          <t>Enterprise Account Executive (Germany)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>James Bennett</t>
+          <t>Aron Kraft</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45971</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>801</v>
+        <v>746</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Redwood Software</t>
+          <t>LaunchDarkly</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Redwood AE Germany x 3</t>
+          <t>Enterprise Account Executive (Germany)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Aron Kraft</t>
+          <t>Florian Werner</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1003,49 +1003,49 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>801</v>
+        <v>746</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Redwood Software</t>
+          <t>LaunchDarkly</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Redwood AE Germany x 3</t>
+          <t>Enterprise Account Executive (Germany)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Leonard Friederich</t>
+          <t>Maximilian May</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45988</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>813</v>
+        <v>746</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Laurel</t>
+          <t>LaunchDarkly</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive UK x4</t>
+          <t>Enterprise Account Executive (Germany)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Dionys Gragousian</t>
+          <t>Sinan Ezer</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1054,26 +1054,26 @@
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45988</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Conduct AI</t>
+          <t>Redwood Software</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive UK</t>
+          <t>Redwood AE Germany x 3</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Dionys Gragousian</t>
+          <t>Aron Kraft</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1082,34 +1082,118 @@
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45989</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
+        <v>801</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Redwood Software</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Redwood AE Germany x 3</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Leonard Friederich</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>CV Sent</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>45988</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>813</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Laurel</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Enterprise Account Executive UK x4</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Dionys Gragousian</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1st Interview</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>45988</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>815</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Conduct AI</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Enterprise Account Executive UK</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Dionys Gragousian</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1st Interview</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>45989</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
         <v>833</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Blockaid</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>SDR Manager</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Branden Bilicki</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>1st Interview</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="n">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1st Interview</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="n">
         <v>45995</v>
       </c>
     </row>

--- a/Consultant_Active_Reports/Active_Candidates_Joe_Marron.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Joe_Marron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,282 +501,282 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Gavin Bennett</t>
+          <t>Matt Crandley</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>591</v>
+        <v>694</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Doxel.ai</t>
+          <t>Chronosphere</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS1 Doxel - Enterprise AE Northeast U.S</t>
+          <t>CS1 Chronosphere - Enterprise AE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Greg Muender</t>
+          <t>Frank Casper</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>591</v>
+        <v>696</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Doxel.ai</t>
+          <t>Cognition AI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS1 Doxel - Enterprise AE Northeast U.S</t>
+          <t>Founding EMEA AE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Matt Crandley</t>
+          <t>Felix Völker</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>694</v>
+        <v>715</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chronosphere</t>
+          <t>Honeycomb</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS1 Chronosphere - Enterprise AE</t>
+          <t>Strat AE U.S x4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Frank Casper</t>
+          <t>Brian Saverino</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>4th Interview</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>696</v>
+        <v>731</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cognition AI</t>
+          <t>Oscilar</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Founding EMEA AE</t>
+          <t>Enterprise AE x5</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Felix Völker</t>
+          <t>Greg Muender</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>4th Interview</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>715</v>
+        <v>740</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Honeycomb</t>
+          <t>Axion Ray</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Strat AE U.S x4</t>
+          <t>Enterprise Account Executive (East)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Brian Saverino</t>
+          <t>Lindsay St.Cin</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3rd Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>715</v>
+        <v>743</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Honeycomb</t>
+          <t>Conduct AI</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Strat AE U.S x4</t>
+          <t>CS1 Conduct AI - Enterprise Account Executive UK (German speaking)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Frank Casper</t>
+          <t>Leonard Friederich</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>3rd Interview</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>731</v>
+        <v>746</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Oscilar</t>
+          <t>LaunchDarkly</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Enterprise AE x5</t>
+          <t>Enterprise Account Executive (Germany)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Greg Muender</t>
+          <t>Aron Kraft</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>731</v>
+        <v>746</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Oscilar</t>
+          <t>LaunchDarkly</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Enterprise AE x5</t>
+          <t>Enterprise Account Executive (Germany)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Matt Crandley</t>
+          <t>Florian Werner</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Dash0</t>
+          <t>LaunchDarkly</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Director of Commercial Sales, NYC/Boston</t>
+          <t>Enterprise Account Executive (Germany)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Chris Hogan</t>
+          <t>Maximilian May</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3rd Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>739</v>
+        <v>801</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Axion Ray</t>
+          <t>Redwood Software</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BDR Manager (North East)</t>
+          <t>Redwood AE Germany x 3</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Branden Bilicki</t>
+          <t>Thomas Schaeffer</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>739</v>
+        <v>801</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Axion Ray</t>
+          <t>Redwood Software</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BDR Manager (North East)</t>
+          <t>Redwood AE Germany x 3</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Jacques Lane</t>
+          <t>Leonard Friederich</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -787,71 +787,71 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>740</v>
+        <v>801</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Axion Ray</t>
+          <t>Redwood Software</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (East)</t>
+          <t>Redwood AE Germany x 3</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Lindsay St.Cin</t>
+          <t>Felix Völker</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>743</v>
+        <v>801</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Conduct AI</t>
+          <t>Redwood Software</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CS1 Conduct AI - Enterprise Account Executive UK (German speaking)</t>
+          <t>Redwood AE Germany x 3</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Leonard Friederich</t>
+          <t>Konstantin Melzer</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>746</v>
+        <v>810</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LaunchDarkly</t>
+          <t>groundcover</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (Germany)</t>
+          <t>Mid-Market AE (Observability in NYC, Boston, Denver, SF)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Maximilian May</t>
+          <t>Alex Andrei</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -862,451 +862,201 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>746</v>
+        <v>833</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LaunchDarkly</t>
+          <t>Blockaid</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (Germany)</t>
+          <t>SDR Manager</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Florian Werner</t>
+          <t>Jacques Lane</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>746</v>
+        <v>839</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LaunchDarkly</t>
+          <t>Pigment</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (Germany)</t>
+          <t>Enterprise AE (California)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Aron Kraft</t>
+          <t>Alexander Wise</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>801</v>
+        <v>839</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Redwood Software</t>
+          <t>Pigment</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Redwood AE Germany x 3</t>
+          <t>Enterprise AE (California)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Aron Kraft</t>
+          <t>Colin Glen</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3rd Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>801</v>
+        <v>839</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Redwood Software</t>
+          <t>Pigment</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Redwood AE Germany x 3</t>
+          <t>Enterprise AE (California)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Felix Völker</t>
+          <t>Cris Castillo</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>2nd Interview</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>801</v>
+        <v>847</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Redwood Software</t>
+          <t>Simile.ai</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Redwood AE Germany x 3</t>
+          <t>CS1 Simile.ai - Enterprise AE x2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Konstantin Melzer</t>
+          <t>ROMIT MIRCHANDANI</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>2nd Interview</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>801</v>
+        <v>847</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Redwood Software</t>
+          <t>Simile.ai</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Redwood AE Germany x 3</t>
+          <t>CS1 Simile.ai - Enterprise AE x2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Leonard Friederich</t>
+          <t>Ali Hussain</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3rd Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>801</v>
+        <v>847</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Redwood Software</t>
+          <t>Simile.ai</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Redwood AE Germany x 3</t>
+          <t>CS1 Simile.ai - Enterprise AE x2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Thomas Schaeffer</t>
+          <t>Danny Wymer</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>3rd Interview</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>810</v>
+        <v>850</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>groundcover</t>
+          <t>Laurel</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mid-Market AE (Observability in NYC, Boston, Denver, SF)</t>
+          <t>Enterprise AE New York</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Alex Andrei</t>
+          <t>Matt Crandley</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>1st Interview</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>813</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Laurel</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Enterprise Account Executive UK x4</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Dionys Gragousian</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>4th Interview</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>833</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Blockaid</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>SDR Manager</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Jacques Lane</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>CV Sent</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>839</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Pigment</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Enterprise AE (California)</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Alexander Wise</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>CV Sent</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>839</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Pigment</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Enterprise AE (California)</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Colin Glen</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>CV Sent</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>839</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Pigment</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Enterprise AE (California)</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Cris Castillo</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>1st Interview</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>847</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Simile.ai</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>CS1 Simile.ai - Enterprise AE x2</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Ali Hussain</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>CV Sent</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>847</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Simile.ai</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>CS1 Simile.ai - Enterprise AE x2</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Danny Wymer</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>2nd Interview</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>847</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Simile.ai</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>CS1 Simile.ai - Enterprise AE x2</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>ROMIT MIRCHANDANI</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>2nd Interview</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>850</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Laurel</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Enterprise AE New York</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Matt Crandley</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>1st Interview</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>858</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Rox</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>SDR SF</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Victor Ermolin</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>CV Sent</t>
         </is>
       </c>
     </row>
